--- a/homework/reshege-7907903/9_27522.xlsx
+++ b/homework/reshege-7907903/9_27522.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/htmlprogrammist/Python/ege/homework/reshege-7907903/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\ege\homework\reshege-7907903\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1831A062-EDE4-F448-868A-93B09FFFA38D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87770385-E54F-4933-B4EE-CF0F04F77E35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист3" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>max</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Тогда получается, что половина от максимума = 19.5</t>
+  </si>
+  <si>
+    <t>Получилось повторить 👍</t>
   </si>
 </sst>
 </file>
@@ -406,16 +409,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="Z40" sqref="Z40"/>
+    <sheetView tabSelected="1" topLeftCell="Q2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -495,7 +498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44287</v>
       </c>
@@ -570,10 +573,6 @@
       </c>
       <c r="Y2" s="4">
         <v>16.5</v>
-      </c>
-      <c r="Z2" s="4">
-        <f>MAX(Y2,X2,W2,V2,U2,T2,S2,B2:S2)</f>
-        <v>26.4</v>
       </c>
       <c r="AA2" t="s">
         <v>1</v>
@@ -583,7 +582,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44288</v>
       </c>
@@ -659,15 +658,11 @@
       <c r="Y3" s="4">
         <v>15.3</v>
       </c>
-      <c r="Z3" s="4">
-        <f t="shared" ref="Z3:Z66" si="0">MAX(Y3,X3,W3,V3,U3,T3,S3,B3:S3)</f>
-        <v>26.8</v>
-      </c>
       <c r="AB3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44289</v>
       </c>
@@ -742,17 +737,13 @@
       </c>
       <c r="Y4" s="4">
         <v>16.5</v>
-      </c>
-      <c r="Z4" s="4">
-        <f t="shared" si="0"/>
-        <v>26.2</v>
       </c>
       <c r="AA4" s="4">
         <f>COUNTIF(B2:Y92,"&lt;19,5")</f>
         <v>601</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44290</v>
       </c>
@@ -828,13 +819,10 @@
       <c r="Y5" s="4">
         <v>15.6</v>
       </c>
-      <c r="Z5" s="4">
-        <f t="shared" si="0"/>
-        <v>26.7</v>
-      </c>
+      <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44291</v>
       </c>
@@ -910,12 +898,12 @@
       <c r="Y6" s="4">
         <v>14.7</v>
       </c>
-      <c r="Z6" s="4">
-        <f t="shared" si="0"/>
-        <v>26.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z6" s="4"/>
+      <c r="AA6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44292</v>
       </c>
@@ -991,12 +979,13 @@
       <c r="Y7" s="4">
         <v>13.9</v>
       </c>
-      <c r="Z7" s="4">
-        <f t="shared" si="0"/>
-        <v>26.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4">
+        <f>MAX(B2:Y92)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44293</v>
       </c>
@@ -1072,12 +1061,13 @@
       <c r="Y8" s="4">
         <v>16.5</v>
       </c>
-      <c r="Z8" s="4">
-        <f t="shared" si="0"/>
-        <v>26.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4">
+        <f>COUNTIF(B2:Y92,"&lt;19,5")</f>
+        <v>601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44294</v>
       </c>
@@ -1153,12 +1143,10 @@
       <c r="Y9" s="4">
         <v>17</v>
       </c>
-      <c r="Z9" s="4">
-        <f t="shared" si="0"/>
-        <v>26.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44295</v>
       </c>
@@ -1234,12 +1222,9 @@
       <c r="Y10" s="4">
         <v>14.2</v>
       </c>
-      <c r="Z10" s="4">
-        <f t="shared" si="0"/>
-        <v>26.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z10" s="4"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44296</v>
       </c>
@@ -1315,12 +1300,9 @@
       <c r="Y11" s="4">
         <v>16.600000000000001</v>
       </c>
-      <c r="Z11" s="4">
-        <f t="shared" si="0"/>
-        <v>25.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z11" s="4"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44297</v>
       </c>
@@ -1396,13 +1378,9 @@
       <c r="Y12" s="4">
         <v>15</v>
       </c>
-      <c r="Z12" s="4">
-        <f t="shared" si="0"/>
-        <v>25.9</v>
-      </c>
-      <c r="AA12" s="4"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z12" s="4"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44298</v>
       </c>
@@ -1478,13 +1456,9 @@
       <c r="Y13" s="4">
         <v>15.8</v>
       </c>
-      <c r="Z13" s="4">
-        <f t="shared" si="0"/>
-        <v>26.9</v>
-      </c>
-      <c r="AA13" s="4"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z13" s="4"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44299</v>
       </c>
@@ -1560,12 +1534,9 @@
       <c r="Y14" s="4">
         <v>16.100000000000001</v>
       </c>
-      <c r="Z14" s="4">
-        <f t="shared" si="0"/>
-        <v>25.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z14" s="4"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44300</v>
       </c>
@@ -1641,12 +1612,10 @@
       <c r="Y15" s="4">
         <v>13.2</v>
       </c>
-      <c r="Z15" s="4">
-        <f t="shared" si="0"/>
-        <v>26.9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44301</v>
       </c>
@@ -1722,12 +1691,10 @@
       <c r="Y16" s="4">
         <v>15</v>
       </c>
-      <c r="Z16" s="4">
-        <f t="shared" si="0"/>
-        <v>28.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44302</v>
       </c>
@@ -1803,12 +1770,9 @@
       <c r="Y17" s="4">
         <v>14.3</v>
       </c>
-      <c r="Z17" s="4">
-        <f t="shared" si="0"/>
-        <v>26.7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z17" s="4"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44303</v>
       </c>
@@ -1884,12 +1848,9 @@
       <c r="Y18" s="4">
         <v>13.8</v>
       </c>
-      <c r="Z18" s="4">
-        <f t="shared" si="0"/>
-        <v>28.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z18" s="4"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44304</v>
       </c>
@@ -1965,12 +1926,9 @@
       <c r="Y19" s="4">
         <v>13</v>
       </c>
-      <c r="Z19" s="4">
-        <f t="shared" si="0"/>
-        <v>26.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z19" s="4"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44305</v>
       </c>
@@ -2046,12 +2004,9 @@
       <c r="Y20" s="4">
         <v>14.9</v>
       </c>
-      <c r="Z20" s="4">
-        <f t="shared" si="0"/>
-        <v>26.3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z20" s="4"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44306</v>
       </c>
@@ -2127,12 +2082,9 @@
       <c r="Y21" s="4">
         <v>16.399999999999999</v>
       </c>
-      <c r="Z21" s="4">
-        <f t="shared" si="0"/>
-        <v>26.4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z21" s="4"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44307</v>
       </c>
@@ -2208,12 +2160,9 @@
       <c r="Y22" s="4">
         <v>16.899999999999999</v>
       </c>
-      <c r="Z22" s="4">
-        <f t="shared" si="0"/>
-        <v>26.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z22" s="4"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44308</v>
       </c>
@@ -2289,12 +2238,9 @@
       <c r="Y23" s="4">
         <v>15.8</v>
       </c>
-      <c r="Z23" s="4">
-        <f t="shared" si="0"/>
-        <v>26.6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z23" s="4"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44311</v>
       </c>
@@ -2370,12 +2316,9 @@
       <c r="Y24" s="4">
         <v>14.9</v>
       </c>
-      <c r="Z24" s="4">
-        <f t="shared" si="0"/>
-        <v>25.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z24" s="4"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44312</v>
       </c>
@@ -2451,12 +2394,9 @@
       <c r="Y25" s="4">
         <v>16.600000000000001</v>
       </c>
-      <c r="Z25" s="4">
-        <f t="shared" si="0"/>
-        <v>26.7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z25" s="4"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44311</v>
       </c>
@@ -2532,12 +2472,9 @@
       <c r="Y26" s="4">
         <v>13.8</v>
       </c>
-      <c r="Z26" s="4">
-        <f t="shared" si="0"/>
-        <v>28.1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z26" s="4"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44312</v>
       </c>
@@ -2613,12 +2550,9 @@
       <c r="Y27" s="4">
         <v>13.6</v>
       </c>
-      <c r="Z27" s="4">
-        <f t="shared" si="0"/>
-        <v>26.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z27" s="4"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>44313</v>
       </c>
@@ -2694,12 +2628,9 @@
       <c r="Y28" s="4">
         <v>13.5</v>
       </c>
-      <c r="Z28" s="4">
-        <f t="shared" si="0"/>
-        <v>26.4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z28" s="4"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44314</v>
       </c>
@@ -2775,12 +2706,9 @@
       <c r="Y29" s="4">
         <v>15.7</v>
       </c>
-      <c r="Z29" s="4">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z29" s="4"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44315</v>
       </c>
@@ -2856,12 +2784,9 @@
       <c r="Y30" s="4">
         <v>15.7</v>
       </c>
-      <c r="Z30" s="4">
-        <f t="shared" si="0"/>
-        <v>25.9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z30" s="4"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44316</v>
       </c>
@@ -2937,12 +2862,9 @@
       <c r="Y31" s="4">
         <v>15.1</v>
       </c>
-      <c r="Z31" s="4">
-        <f t="shared" si="0"/>
-        <v>25.9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z31" s="4"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>44317</v>
       </c>
@@ -3018,12 +2940,9 @@
       <c r="Y32" s="4">
         <v>21</v>
       </c>
-      <c r="Z32" s="4">
-        <f t="shared" si="0"/>
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z32" s="4"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44318</v>
       </c>
@@ -3099,12 +3018,9 @@
       <c r="Y33" s="4">
         <v>20.5</v>
       </c>
-      <c r="Z33" s="4">
-        <f t="shared" si="0"/>
-        <v>29.8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z33" s="4"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>44319</v>
       </c>
@@ -3180,12 +3096,9 @@
       <c r="Y34" s="4">
         <v>18</v>
       </c>
-      <c r="Z34" s="4">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z34" s="4"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>44320</v>
       </c>
@@ -3261,12 +3174,9 @@
       <c r="Y35" s="4">
         <v>21.3</v>
       </c>
-      <c r="Z35" s="4">
-        <f t="shared" si="0"/>
-        <v>30.4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z35" s="4"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>44321</v>
       </c>
@@ -3342,12 +3252,9 @@
       <c r="Y36" s="4">
         <v>20.399999999999999</v>
       </c>
-      <c r="Z36" s="4">
-        <f t="shared" si="0"/>
-        <v>30.9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z36" s="4"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44322</v>
       </c>
@@ -3423,12 +3330,9 @@
       <c r="Y37" s="4">
         <v>21.1</v>
       </c>
-      <c r="Z37" s="4">
-        <f t="shared" si="0"/>
-        <v>30.9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z37" s="4"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44323</v>
       </c>
@@ -3504,12 +3408,9 @@
       <c r="Y38" s="4">
         <v>20.3</v>
       </c>
-      <c r="Z38" s="4">
-        <f t="shared" si="0"/>
-        <v>30.1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z38" s="4"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44324</v>
       </c>
@@ -3585,12 +3486,9 @@
       <c r="Y39" s="4">
         <v>19.3</v>
       </c>
-      <c r="Z39" s="4">
-        <f t="shared" si="0"/>
-        <v>30.3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z39" s="4"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>44325</v>
       </c>
@@ -3666,12 +3564,9 @@
       <c r="Y40" s="4">
         <v>18.399999999999999</v>
       </c>
-      <c r="Z40" s="4">
-        <f t="shared" si="0"/>
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z40" s="4"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>44326</v>
       </c>
@@ -3747,12 +3642,9 @@
       <c r="Y41" s="4">
         <v>20.100000000000001</v>
       </c>
-      <c r="Z41" s="4">
-        <f t="shared" si="0"/>
-        <v>30.8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z41" s="4"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>44327</v>
       </c>
@@ -3828,12 +3720,9 @@
       <c r="Y42" s="4">
         <v>19.899999999999999</v>
       </c>
-      <c r="Z42" s="4">
-        <f t="shared" si="0"/>
-        <v>30.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z42" s="4"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>44328</v>
       </c>
@@ -3909,12 +3798,9 @@
       <c r="Y43" s="4">
         <v>21.2</v>
       </c>
-      <c r="Z43" s="4">
-        <f t="shared" si="0"/>
-        <v>29.8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z43" s="4"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>44329</v>
       </c>
@@ -3990,12 +3876,9 @@
       <c r="Y44" s="4">
         <v>20.6</v>
       </c>
-      <c r="Z44" s="4">
-        <f t="shared" si="0"/>
-        <v>30.2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z44" s="4"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44330</v>
       </c>
@@ -4071,12 +3954,9 @@
       <c r="Y45" s="4">
         <v>21.3</v>
       </c>
-      <c r="Z45" s="4">
-        <f t="shared" si="0"/>
-        <v>30.9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z45" s="4"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44331</v>
       </c>
@@ -4152,12 +4032,9 @@
       <c r="Y46" s="4">
         <v>18.7</v>
       </c>
-      <c r="Z46" s="4">
-        <f t="shared" si="0"/>
-        <v>30.3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z46" s="4"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44332</v>
       </c>
@@ -4233,12 +4110,9 @@
       <c r="Y47" s="4">
         <v>19.7</v>
       </c>
-      <c r="Z47" s="4">
-        <f t="shared" si="0"/>
-        <v>30.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z47" s="4"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>44333</v>
       </c>
@@ -4314,12 +4188,9 @@
       <c r="Y48" s="4">
         <v>19</v>
       </c>
-      <c r="Z48" s="4">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z48" s="4"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>44334</v>
       </c>
@@ -4395,12 +4266,9 @@
       <c r="Y49" s="4">
         <v>21.5</v>
       </c>
-      <c r="Z49" s="4">
-        <f t="shared" si="0"/>
-        <v>29.9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z49" s="4"/>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>44335</v>
       </c>
@@ -4476,12 +4344,9 @@
       <c r="Y50" s="4">
         <v>19.3</v>
       </c>
-      <c r="Z50" s="4">
-        <f t="shared" si="0"/>
-        <v>30.8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z50" s="4"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>44336</v>
       </c>
@@ -4557,12 +4422,9 @@
       <c r="Y51" s="4">
         <v>18.399999999999999</v>
       </c>
-      <c r="Z51" s="4">
-        <f t="shared" si="0"/>
-        <v>30.8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z51" s="4"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>44337</v>
       </c>
@@ -4638,12 +4500,9 @@
       <c r="Y52" s="4">
         <v>20.5</v>
       </c>
-      <c r="Z52" s="4">
-        <f t="shared" si="0"/>
-        <v>29.7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z52" s="4"/>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>44338</v>
       </c>
@@ -4719,12 +4578,9 @@
       <c r="Y53" s="4">
         <v>21.4</v>
       </c>
-      <c r="Z53" s="4">
-        <f t="shared" si="0"/>
-        <v>29.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z53" s="4"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>44341</v>
       </c>
@@ -4800,12 +4656,9 @@
       <c r="Y54" s="4">
         <v>21.8</v>
       </c>
-      <c r="Z54" s="4">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z54" s="4"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>44342</v>
       </c>
@@ -4881,12 +4734,9 @@
       <c r="Y55" s="4">
         <v>19</v>
       </c>
-      <c r="Z55" s="4">
-        <f t="shared" si="0"/>
-        <v>30.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z55" s="4"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>44341</v>
       </c>
@@ -4962,12 +4812,9 @@
       <c r="Y56" s="4">
         <v>19.100000000000001</v>
       </c>
-      <c r="Z56" s="4">
-        <f t="shared" si="0"/>
-        <v>29.9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z56" s="4"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>44342</v>
       </c>
@@ -5043,12 +4890,9 @@
       <c r="Y57" s="4">
         <v>18.899999999999999</v>
       </c>
-      <c r="Z57" s="4">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z57" s="4"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>44343</v>
       </c>
@@ -5124,12 +4968,9 @@
       <c r="Y58" s="4">
         <v>20.6</v>
       </c>
-      <c r="Z58" s="4">
-        <f t="shared" si="0"/>
-        <v>29.6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z58" s="4"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>44344</v>
       </c>
@@ -5205,12 +5046,9 @@
       <c r="Y59" s="4">
         <v>20.2</v>
       </c>
-      <c r="Z59" s="4">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z59" s="4"/>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>44345</v>
       </c>
@@ -5286,12 +5124,9 @@
       <c r="Y60" s="4">
         <v>19.7</v>
       </c>
-      <c r="Z60" s="4">
-        <f t="shared" si="0"/>
-        <v>29.9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z60" s="4"/>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>44346</v>
       </c>
@@ -5367,12 +5202,9 @@
       <c r="Y61" s="4">
         <v>21.3</v>
       </c>
-      <c r="Z61" s="4">
-        <f t="shared" si="0"/>
-        <v>30.8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z61" s="4"/>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>44347</v>
       </c>
@@ -5448,12 +5280,9 @@
       <c r="Y62" s="4">
         <v>20.3</v>
       </c>
-      <c r="Z62" s="4">
-        <f t="shared" si="0"/>
-        <v>29.3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z62" s="4"/>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>44348</v>
       </c>
@@ -5529,12 +5358,9 @@
       <c r="Y63" s="4">
         <v>26.5</v>
       </c>
-      <c r="Z63" s="4">
-        <f t="shared" si="0"/>
-        <v>37.299999999999997</v>
-      </c>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z63" s="4"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>44349</v>
       </c>
@@ -5610,12 +5436,9 @@
       <c r="Y64" s="4">
         <v>27.6</v>
       </c>
-      <c r="Z64" s="4">
-        <f t="shared" si="0"/>
-        <v>37.1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z64" s="4"/>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>44350</v>
       </c>
@@ -5691,12 +5514,9 @@
       <c r="Y65" s="4">
         <v>28.5</v>
       </c>
-      <c r="Z65" s="4">
-        <f t="shared" si="0"/>
-        <v>37.9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z65" s="4"/>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>44351</v>
       </c>
@@ -5772,12 +5592,9 @@
       <c r="Y66" s="4">
         <v>27.6</v>
       </c>
-      <c r="Z66" s="4">
-        <f t="shared" si="0"/>
-        <v>37.9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z66" s="4"/>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>44352</v>
       </c>
@@ -5853,12 +5670,9 @@
       <c r="Y67" s="4">
         <v>21.3</v>
       </c>
-      <c r="Z67" s="4">
-        <f t="shared" ref="Z67:Z92" si="1">MAX(Y67,X67,W67,V67,U67,T67,S67,B67:S67)</f>
-        <v>37.4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z67" s="4"/>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>44353</v>
       </c>
@@ -5934,12 +5748,9 @@
       <c r="Y68" s="4">
         <v>25.7</v>
       </c>
-      <c r="Z68" s="4">
-        <f t="shared" si="1"/>
-        <v>37.4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z68" s="4"/>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>44354</v>
       </c>
@@ -6015,12 +5826,9 @@
       <c r="Y69" s="4">
         <v>27.9</v>
       </c>
-      <c r="Z69" s="4">
-        <f t="shared" si="1"/>
-        <v>37.700000000000003</v>
-      </c>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z69" s="4"/>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>44355</v>
       </c>
@@ -6096,12 +5904,9 @@
       <c r="Y70" s="4">
         <v>28.4</v>
       </c>
-      <c r="Z70" s="4">
-        <f t="shared" si="1"/>
-        <v>35.700000000000003</v>
-      </c>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z70" s="4"/>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>44356</v>
       </c>
@@ -6177,12 +5982,9 @@
       <c r="Y71" s="4">
         <v>27.7</v>
       </c>
-      <c r="Z71" s="4">
-        <f t="shared" si="1"/>
-        <v>36.4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z71" s="4"/>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>44357</v>
       </c>
@@ -6258,12 +6060,9 @@
       <c r="Y72" s="4">
         <v>28.4</v>
       </c>
-      <c r="Z72" s="4">
-        <f t="shared" si="1"/>
-        <v>37.700000000000003</v>
-      </c>
-    </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z72" s="4"/>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>44358</v>
       </c>
@@ -6339,12 +6138,9 @@
       <c r="Y73" s="4">
         <v>26.6</v>
       </c>
-      <c r="Z73" s="4">
-        <f t="shared" si="1"/>
-        <v>37.799999999999997</v>
-      </c>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z73" s="4"/>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>44359</v>
       </c>
@@ -6420,12 +6216,9 @@
       <c r="Y74" s="4">
         <v>28.8</v>
       </c>
-      <c r="Z74" s="4">
-        <f t="shared" si="1"/>
-        <v>36.700000000000003</v>
-      </c>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z74" s="4"/>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>44360</v>
       </c>
@@ -6501,12 +6294,9 @@
       <c r="Y75" s="4">
         <v>27.5</v>
       </c>
-      <c r="Z75" s="4">
-        <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
-      </c>
-    </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z75" s="4"/>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>44361</v>
       </c>
@@ -6582,12 +6372,9 @@
       <c r="Y76" s="4">
         <v>28.7</v>
       </c>
-      <c r="Z76" s="4">
-        <f t="shared" si="1"/>
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z76" s="4"/>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>44362</v>
       </c>
@@ -6663,12 +6450,9 @@
       <c r="Y77" s="4">
         <v>25.3</v>
       </c>
-      <c r="Z77" s="4">
-        <f t="shared" si="1"/>
-        <v>37.700000000000003</v>
-      </c>
-    </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z77" s="4"/>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>44363</v>
       </c>
@@ -6744,12 +6528,9 @@
       <c r="Y78" s="4">
         <v>28.5</v>
       </c>
-      <c r="Z78" s="4">
-        <f t="shared" si="1"/>
-        <v>37.299999999999997</v>
-      </c>
-    </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z78" s="4"/>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>44364</v>
       </c>
@@ -6825,12 +6606,9 @@
       <c r="Y79" s="4">
         <v>28.5</v>
       </c>
-      <c r="Z79" s="4">
-        <f t="shared" si="1"/>
-        <v>36.5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z79" s="4"/>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>44365</v>
       </c>
@@ -6906,12 +6684,9 @@
       <c r="Y80" s="4">
         <v>26.2</v>
       </c>
-      <c r="Z80" s="4">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z80" s="4"/>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>44366</v>
       </c>
@@ -6987,12 +6762,9 @@
       <c r="Y81" s="4">
         <v>27.6</v>
       </c>
-      <c r="Z81" s="4">
-        <f t="shared" si="1"/>
-        <v>36.700000000000003</v>
-      </c>
-    </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z81" s="4"/>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>44367</v>
       </c>
@@ -7068,12 +6840,9 @@
       <c r="Y82" s="4">
         <v>27.2</v>
       </c>
-      <c r="Z82" s="4">
-        <f t="shared" si="1"/>
-        <v>37.6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z82" s="4"/>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>44368</v>
       </c>
@@ -7149,12 +6918,9 @@
       <c r="Y83" s="4">
         <v>25.1</v>
       </c>
-      <c r="Z83" s="4">
-        <f t="shared" si="1"/>
-        <v>36.799999999999997</v>
-      </c>
-    </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z83" s="4"/>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>44369</v>
       </c>
@@ -7230,12 +6996,9 @@
       <c r="Y84" s="4">
         <v>28.1</v>
       </c>
-      <c r="Z84" s="4">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z84" s="4"/>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>44372</v>
       </c>
@@ -7311,12 +7074,9 @@
       <c r="Y85" s="4">
         <v>25.9</v>
       </c>
-      <c r="Z85" s="4">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z85" s="4"/>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>44373</v>
       </c>
@@ -7392,12 +7152,9 @@
       <c r="Y86" s="4">
         <v>25.1</v>
       </c>
-      <c r="Z86" s="4">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z86" s="4"/>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>44372</v>
       </c>
@@ -7473,12 +7230,9 @@
       <c r="Y87" s="4">
         <v>21.3</v>
       </c>
-      <c r="Z87" s="4">
-        <f t="shared" si="1"/>
-        <v>37.799999999999997</v>
-      </c>
-    </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z87" s="4"/>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>44373</v>
       </c>
@@ -7554,12 +7308,9 @@
       <c r="Y88" s="4">
         <v>28.9</v>
       </c>
-      <c r="Z88" s="4">
-        <f t="shared" si="1"/>
-        <v>37.200000000000003</v>
-      </c>
-    </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z88" s="4"/>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>44374</v>
       </c>
@@ -7635,12 +7386,9 @@
       <c r="Y89" s="4">
         <v>26.4</v>
       </c>
-      <c r="Z89" s="4">
-        <f t="shared" si="1"/>
-        <v>37.799999999999997</v>
-      </c>
-    </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z89" s="4"/>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>44375</v>
       </c>
@@ -7716,12 +7464,9 @@
       <c r="Y90" s="4">
         <v>27.8</v>
       </c>
-      <c r="Z90" s="4">
-        <f t="shared" si="1"/>
-        <v>36.200000000000003</v>
-      </c>
-    </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z90" s="4"/>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>44376</v>
       </c>
@@ -7797,12 +7542,9 @@
       <c r="Y91" s="4">
         <v>27.7</v>
       </c>
-      <c r="Z91" s="4">
-        <f t="shared" si="1"/>
-        <v>37.6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z91" s="4"/>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>44377</v>
       </c>
@@ -7878,18 +7620,15 @@
       <c r="Y92" s="4">
         <v>25.2</v>
       </c>
-      <c r="Z92" s="4">
-        <f t="shared" si="1"/>
-        <v>37.4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z92" s="4"/>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C95" s="3"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C96" s="3"/>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="5"/>
     </row>
   </sheetData>
